--- a/Code/Results/Cases/Case_3_119/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_119/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.85759313469579</v>
+        <v>9.328343784355354</v>
       </c>
       <c r="C2">
-        <v>8.270098392669075</v>
+        <v>5.11983886738552</v>
       </c>
       <c r="D2">
-        <v>5.369132630153541</v>
+        <v>5.174628543835425</v>
       </c>
       <c r="F2">
-        <v>17.06754725254158</v>
+        <v>24.12854153961361</v>
       </c>
       <c r="G2">
-        <v>20.84867404964159</v>
+        <v>28.44668901693521</v>
       </c>
       <c r="H2">
-        <v>8.738598637888884</v>
+        <v>14.32345971147685</v>
       </c>
       <c r="I2">
-        <v>12.77036197800991</v>
+        <v>20.44073493203962</v>
       </c>
       <c r="K2">
-        <v>12.54584859010504</v>
+        <v>9.15117348068347</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -456,28 +456,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.98187511568169</v>
+        <v>8.973395608549719</v>
       </c>
       <c r="C3">
-        <v>7.776987652541689</v>
+        <v>4.862255450572296</v>
       </c>
       <c r="D3">
-        <v>5.196989569462479</v>
+        <v>5.109305836660659</v>
       </c>
       <c r="F3">
-        <v>17.01107752302172</v>
+        <v>24.2332812560475</v>
       </c>
       <c r="G3">
-        <v>20.9313836369464</v>
+        <v>28.62934061186657</v>
       </c>
       <c r="H3">
-        <v>8.882997198078147</v>
+        <v>14.39305911169561</v>
       </c>
       <c r="I3">
-        <v>13.09193362213545</v>
+        <v>20.57170718249737</v>
       </c>
       <c r="K3">
-        <v>11.82262330610283</v>
+        <v>8.903834857517133</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.41367361982635</v>
+        <v>8.749106100296851</v>
       </c>
       <c r="C4">
-        <v>7.458331044612187</v>
+        <v>4.695928554915776</v>
       </c>
       <c r="D4">
-        <v>5.088112226899073</v>
+        <v>5.068402551887662</v>
       </c>
       <c r="F4">
-        <v>17.00006565166164</v>
+        <v>24.30549255657003</v>
       </c>
       <c r="G4">
-        <v>21.02236098287658</v>
+        <v>28.7533022866289</v>
       </c>
       <c r="H4">
-        <v>8.978450035125368</v>
+        <v>14.43859279322465</v>
       </c>
       <c r="I4">
-        <v>13.30046736571201</v>
+        <v>20.65690240593316</v>
       </c>
       <c r="K4">
-        <v>11.35551640542481</v>
+        <v>8.749533716590612</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.17445433886495</v>
+        <v>8.656245283022423</v>
       </c>
       <c r="C5">
-        <v>7.324503196608677</v>
+        <v>4.626136008100352</v>
       </c>
       <c r="D5">
-        <v>5.042985096781457</v>
+        <v>5.051544776413753</v>
       </c>
       <c r="F5">
-        <v>17.00127979722726</v>
+        <v>24.33689655656531</v>
       </c>
       <c r="G5">
-        <v>21.06894546863943</v>
+        <v>28.8067674019039</v>
       </c>
       <c r="H5">
-        <v>9.018988544399646</v>
+        <v>14.45785202945058</v>
       </c>
       <c r="I5">
-        <v>13.38812976805584</v>
+        <v>20.69282180025974</v>
       </c>
       <c r="K5">
-        <v>11.15942323266374</v>
+        <v>8.686134418262089</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.13426893420536</v>
+        <v>8.640741828275512</v>
       </c>
       <c r="C6">
-        <v>7.302042094663522</v>
+        <v>4.614426797007385</v>
       </c>
       <c r="D6">
-        <v>5.035447232096093</v>
+        <v>5.048734430933693</v>
       </c>
       <c r="F6">
-        <v>17.00181828395558</v>
+        <v>24.34223031085235</v>
       </c>
       <c r="G6">
-        <v>21.07723768381355</v>
+        <v>28.81582279051327</v>
       </c>
       <c r="H6">
-        <v>9.025817182439198</v>
+        <v>14.46109252390221</v>
       </c>
       <c r="I6">
-        <v>13.40284530112009</v>
+        <v>20.6988587737474</v>
       </c>
       <c r="K6">
-        <v>11.12651708878325</v>
+        <v>8.675578372782681</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -596,28 +596,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.41047848480739</v>
+        <v>8.747859472317725</v>
       </c>
       <c r="C7">
-        <v>7.456542244154406</v>
+        <v>4.694995398211681</v>
       </c>
       <c r="D7">
-        <v>5.087506641218669</v>
+        <v>5.068175954666987</v>
       </c>
       <c r="F7">
-        <v>17.0000592771577</v>
+        <v>24.30590808850319</v>
       </c>
       <c r="G7">
-        <v>21.02295152130268</v>
+        <v>28.75401142008677</v>
       </c>
       <c r="H7">
-        <v>8.978990192651086</v>
+        <v>14.43884968002047</v>
       </c>
       <c r="I7">
-        <v>13.30163887565017</v>
+        <v>20.65738196164335</v>
       </c>
       <c r="K7">
-        <v>11.35289499780971</v>
+        <v>8.74868067309286</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -631,28 +631,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.56197319827396</v>
+        <v>9.207352480872732</v>
       </c>
       <c r="C8">
-        <v>8.103380303163734</v>
+        <v>5.032742108883034</v>
       </c>
       <c r="D8">
-        <v>5.31046119825793</v>
+        <v>5.152276490195614</v>
       </c>
       <c r="F8">
-        <v>17.04302049106616</v>
+        <v>24.16301046117747</v>
       </c>
       <c r="G8">
-        <v>20.86849382337271</v>
+        <v>28.50720313903543</v>
       </c>
       <c r="H8">
-        <v>8.786935370362677</v>
+        <v>14.34687655245598</v>
       </c>
       <c r="I8">
-        <v>12.87887110776616</v>
+        <v>20.48490268500834</v>
       </c>
       <c r="K8">
-        <v>12.30128842590597</v>
+        <v>9.066449723838261</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -666,28 +666,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.57858763810581</v>
+        <v>10.05279978417941</v>
       </c>
       <c r="C9">
-        <v>9.245371267387249</v>
+        <v>5.628797866551795</v>
       </c>
       <c r="D9">
-        <v>5.720852917926387</v>
+        <v>5.310441866279359</v>
       </c>
       <c r="F9">
-        <v>17.32532211907782</v>
+        <v>23.94588173629342</v>
       </c>
       <c r="G9">
-        <v>20.91044510671715</v>
+        <v>28.11785732994641</v>
       </c>
       <c r="H9">
-        <v>8.467557996225855</v>
+        <v>14.18873070768012</v>
       </c>
       <c r="I9">
-        <v>12.14333291808389</v>
+        <v>20.18456932544136</v>
       </c>
       <c r="K9">
-        <v>13.97686496543558</v>
+        <v>9.666530447971288</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.91443403523102</v>
+        <v>10.63399157203278</v>
       </c>
       <c r="C10">
-        <v>10.00737059097479</v>
+        <v>6.024828065842503</v>
       </c>
       <c r="D10">
-        <v>6.004200590306494</v>
+        <v>5.421948401747398</v>
       </c>
       <c r="F10">
-        <v>17.66624370870518</v>
+        <v>23.82535048872824</v>
       </c>
       <c r="G10">
-        <v>21.18489470010479</v>
+        <v>27.89073457329084</v>
       </c>
       <c r="H10">
-        <v>8.273000337640587</v>
+        <v>14.08608476038009</v>
       </c>
       <c r="I10">
-        <v>11.66906293559259</v>
+        <v>19.98700301046187</v>
       </c>
       <c r="K10">
-        <v>15.09478174674957</v>
+        <v>10.08874630235118</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.49094130145104</v>
+        <v>10.88868502354561</v>
       </c>
       <c r="C11">
-        <v>10.3374593427466</v>
+        <v>6.195680978612238</v>
       </c>
       <c r="D11">
-        <v>6.128855341328187</v>
+        <v>5.471539063337493</v>
       </c>
       <c r="F11">
-        <v>17.85264165374753</v>
+        <v>23.77908969825908</v>
       </c>
       <c r="G11">
-        <v>21.36897204870246</v>
+        <v>27.8004633485101</v>
       </c>
       <c r="H11">
-        <v>8.194509039352219</v>
+        <v>14.04233053094717</v>
       </c>
       <c r="I11">
-        <v>11.47016932166405</v>
+        <v>19.90213703464215</v>
       </c>
       <c r="K11">
-        <v>15.57884644121469</v>
+        <v>10.27591875887178</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -771,28 +771,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.70480896993342</v>
+        <v>10.98366586369991</v>
       </c>
       <c r="C12">
-        <v>10.46009555361135</v>
+        <v>6.25902770233739</v>
       </c>
       <c r="D12">
-        <v>6.175428527096684</v>
+        <v>5.490145312654406</v>
       </c>
       <c r="F12">
-        <v>17.92788746122333</v>
+        <v>23.762812136384</v>
       </c>
       <c r="G12">
-        <v>21.44764007196674</v>
+        <v>27.76817682345034</v>
       </c>
       <c r="H12">
-        <v>8.166349929246195</v>
+        <v>14.02618495842891</v>
       </c>
       <c r="I12">
-        <v>11.39752903238248</v>
+        <v>19.87072089461796</v>
       </c>
       <c r="K12">
-        <v>15.75864444372793</v>
+        <v>10.346029278056</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.6589456627113</v>
+        <v>10.96327628730096</v>
       </c>
       <c r="C13">
-        <v>10.43378832100128</v>
+        <v>6.24544514893531</v>
       </c>
       <c r="D13">
-        <v>6.165426512366115</v>
+        <v>5.486145951092141</v>
       </c>
       <c r="F13">
-        <v>17.91147233933657</v>
+        <v>23.76626250999215</v>
       </c>
       <c r="G13">
-        <v>21.43029249738843</v>
+        <v>27.77504559695381</v>
       </c>
       <c r="H13">
-        <v>8.172342845339227</v>
+        <v>14.02964336669727</v>
       </c>
       <c r="I13">
-        <v>11.41304995323407</v>
+        <v>19.87745485522089</v>
       </c>
       <c r="K13">
-        <v>15.72007739346984</v>
+        <v>10.33096481443218</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -841,28 +841,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.50862512412769</v>
+        <v>10.89652891430259</v>
       </c>
       <c r="C14">
-        <v>10.34759589684588</v>
+        <v>6.200919706699294</v>
       </c>
       <c r="D14">
-        <v>6.132699696307575</v>
+        <v>5.473073324382853</v>
       </c>
       <c r="F14">
-        <v>17.85873792828259</v>
+        <v>23.7777256294434</v>
       </c>
       <c r="G14">
-        <v>21.37526217539538</v>
+        <v>27.79776897537491</v>
       </c>
       <c r="H14">
-        <v>8.192160278746636</v>
+        <v>14.04099374063607</v>
       </c>
       <c r="I14">
-        <v>11.46413793930611</v>
+        <v>19.89953796075639</v>
       </c>
       <c r="K14">
-        <v>15.59370870693914</v>
+        <v>10.28170252144081</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -876,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.41597209600836</v>
+        <v>10.85545132688382</v>
       </c>
       <c r="C15">
-        <v>10.29449367878363</v>
+        <v>6.173470219653917</v>
       </c>
       <c r="D15">
-        <v>6.112570857822843</v>
+        <v>5.465043200716157</v>
       </c>
       <c r="F15">
-        <v>17.82704790627333</v>
+        <v>23.78490888918247</v>
       </c>
       <c r="G15">
-        <v>21.34273377415498</v>
+        <v>27.81193538813881</v>
       </c>
       <c r="H15">
-        <v>8.204506566706121</v>
+        <v>14.04800130003901</v>
       </c>
       <c r="I15">
-        <v>11.49578749967734</v>
+        <v>19.91315838560757</v>
       </c>
       <c r="K15">
-        <v>15.51584808634095</v>
+        <v>10.2514261888433</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -911,28 +911,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.87613389288057</v>
+        <v>10.61714530371809</v>
       </c>
       <c r="C16">
-        <v>9.985466974091164</v>
+        <v>6.013473969551909</v>
       </c>
       <c r="D16">
-        <v>5.995966888665777</v>
+        <v>5.418683886241793</v>
       </c>
       <c r="F16">
-        <v>17.65470626402844</v>
+        <v>23.82854688543188</v>
       </c>
       <c r="G16">
-        <v>21.17409606779075</v>
+        <v>27.89689837182621</v>
       </c>
       <c r="H16">
-        <v>8.27834175173432</v>
+        <v>14.08900339833818</v>
       </c>
       <c r="I16">
-        <v>11.68242101381034</v>
+        <v>19.9926500253383</v>
       </c>
       <c r="K16">
-        <v>15.06265533520213</v>
+        <v>10.07641005360234</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -946,28 +946,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.53700259284091</v>
+        <v>10.46841500365434</v>
       </c>
       <c r="C17">
-        <v>9.791662093826989</v>
+        <v>5.91292781914113</v>
       </c>
       <c r="D17">
-        <v>5.923331752524986</v>
+        <v>5.389946526905828</v>
       </c>
       <c r="F17">
-        <v>17.55711940721643</v>
+        <v>23.85751816770782</v>
       </c>
       <c r="G17">
-        <v>21.08614785392229</v>
+        <v>27.95237738882149</v>
       </c>
       <c r="H17">
-        <v>8.326286457801206</v>
+        <v>14.11491014924452</v>
       </c>
       <c r="I17">
-        <v>11.80139967629972</v>
+        <v>20.04269863770182</v>
       </c>
       <c r="K17">
-        <v>14.77837314267921</v>
+        <v>9.967742260305659</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -981,28 +981,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.33900609725087</v>
+        <v>10.381960500854</v>
       </c>
       <c r="C18">
-        <v>9.678631580495678</v>
+        <v>5.854221265571462</v>
       </c>
       <c r="D18">
-        <v>5.881155731319762</v>
+        <v>5.373311347845757</v>
       </c>
       <c r="F18">
-        <v>17.50392908827528</v>
+        <v>23.87498782903343</v>
       </c>
       <c r="G18">
-        <v>21.04111427659875</v>
+        <v>27.98551437546476</v>
       </c>
       <c r="H18">
-        <v>8.354797425036347</v>
+        <v>14.13008771786996</v>
       </c>
       <c r="I18">
-        <v>11.87140217843053</v>
+        <v>20.07195660197133</v>
       </c>
       <c r="K18">
-        <v>14.61255590191196</v>
+        <v>9.904782038746854</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1016,28 +1016,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.27146229200554</v>
+        <v>10.35253477144541</v>
       </c>
       <c r="C19">
-        <v>9.640093141082929</v>
+        <v>5.834194415366404</v>
       </c>
       <c r="D19">
-        <v>5.86680795773999</v>
+        <v>5.36766101780481</v>
       </c>
       <c r="F19">
-        <v>17.48641936123049</v>
+        <v>23.88104095692297</v>
       </c>
       <c r="G19">
-        <v>21.02680567892423</v>
+        <v>27.99694406875647</v>
       </c>
       <c r="H19">
-        <v>8.364607658828209</v>
+        <v>14.13527409074084</v>
       </c>
       <c r="I19">
-        <v>11.89536621969811</v>
+        <v>20.08194377923762</v>
       </c>
       <c r="K19">
-        <v>14.55601675366678</v>
+        <v>9.883388270355598</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.57340740761842</v>
+        <v>10.48434220589832</v>
       </c>
       <c r="C20">
-        <v>9.812454194815334</v>
+        <v>5.923721804704862</v>
       </c>
       <c r="D20">
-        <v>5.931105263003507</v>
+        <v>5.393016730640592</v>
       </c>
       <c r="F20">
-        <v>17.56720229624328</v>
+        <v>23.85435063172875</v>
       </c>
       <c r="G20">
-        <v>21.0949320726663</v>
+        <v>27.94634441744571</v>
       </c>
       <c r="H20">
-        <v>8.321085091585607</v>
+        <v>14.11212369180659</v>
       </c>
       <c r="I20">
-        <v>11.78857008359626</v>
+        <v>20.03732209274175</v>
       </c>
       <c r="K20">
-        <v>14.80887401918137</v>
+        <v>9.979357949400249</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.5528981529499</v>
+        <v>10.91617454978844</v>
       </c>
       <c r="C21">
-        <v>10.37297661256348</v>
+        <v>6.214034683527609</v>
       </c>
       <c r="D21">
-        <v>6.142329626490072</v>
+        <v>5.476917831902783</v>
       </c>
       <c r="F21">
-        <v>17.87409965040091</v>
+        <v>23.77432490732282</v>
       </c>
       <c r="G21">
-        <v>21.39117945172068</v>
+        <v>27.79104291389719</v>
       </c>
       <c r="H21">
-        <v>8.186295929594708</v>
+        <v>14.03764837127458</v>
       </c>
       <c r="I21">
-        <v>11.4490573197464</v>
+        <v>19.8930320505256</v>
       </c>
       <c r="K21">
-        <v>15.63092127983239</v>
+        <v>10.29619336215919</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1121,28 +1121,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.16717594195081</v>
+        <v>11.18982999813543</v>
       </c>
       <c r="C22">
-        <v>10.72555936365338</v>
+        <v>6.395888720783273</v>
       </c>
       <c r="D22">
-        <v>6.276692516157572</v>
+        <v>5.530741507348801</v>
       </c>
       <c r="F22">
-        <v>18.10190086966054</v>
+        <v>23.72925683478011</v>
       </c>
       <c r="G22">
-        <v>21.63719291204542</v>
+        <v>27.70061222178771</v>
       </c>
       <c r="H22">
-        <v>8.107384792865469</v>
+        <v>13.99144143838389</v>
       </c>
       <c r="I22">
-        <v>11.2429114473841</v>
+        <v>19.80293169240289</v>
       </c>
       <c r="K22">
-        <v>16.14774806398405</v>
+        <v>10.49876389067634</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1156,28 +1156,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.84167755450725</v>
+        <v>11.04458060368149</v>
       </c>
       <c r="C23">
-        <v>10.53863016019166</v>
+        <v>6.299554772671827</v>
       </c>
       <c r="D23">
-        <v>6.20532366384112</v>
+        <v>5.502110322206915</v>
       </c>
       <c r="F23">
-        <v>17.9777810631549</v>
+        <v>23.75264611503846</v>
       </c>
       <c r="G23">
-        <v>21.50096561917899</v>
+        <v>27.74785730396277</v>
       </c>
       <c r="H23">
-        <v>8.1486170008085</v>
+        <v>14.01587706053659</v>
       </c>
       <c r="I23">
-        <v>11.35140110311222</v>
+        <v>19.85063527454496</v>
       </c>
       <c r="K23">
-        <v>15.87377063521321</v>
+        <v>10.39107942381004</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1191,28 +1191,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.55695821725201</v>
+        <v>10.47714446335575</v>
       </c>
       <c r="C24">
-        <v>9.803059100547392</v>
+        <v>5.918844649932391</v>
       </c>
       <c r="D24">
-        <v>5.927592156505523</v>
+        <v>5.391629044913189</v>
       </c>
       <c r="F24">
-        <v>17.56263475896122</v>
+        <v>23.85578014078175</v>
       </c>
       <c r="G24">
-        <v>21.09094354021668</v>
+        <v>27.9490680586218</v>
       </c>
       <c r="H24">
-        <v>8.323433689041178</v>
+        <v>14.11338256635698</v>
       </c>
       <c r="I24">
-        <v>11.79436537718858</v>
+        <v>20.0397513200183</v>
       </c>
       <c r="K24">
-        <v>14.7950919858443</v>
+        <v>9.974108004184238</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.05876821250393</v>
+        <v>9.830713058971362</v>
       </c>
       <c r="C25">
-        <v>8.949991525791489</v>
+        <v>5.474818262937545</v>
       </c>
       <c r="D25">
-        <v>5.612905778789402</v>
+        <v>5.268438144341965</v>
       </c>
       <c r="F25">
-        <v>17.22635658420745</v>
+        <v>23.99780994608748</v>
       </c>
       <c r="G25">
-        <v>20.85860561307055</v>
+        <v>28.21292491252607</v>
       </c>
       <c r="H25">
-        <v>8.54732767744769</v>
+        <v>14.22913520100286</v>
       </c>
       <c r="I25">
-        <v>12.33145181803642</v>
+        <v>20.26176212465547</v>
       </c>
       <c r="K25">
-        <v>13.54343067670289</v>
+        <v>9.507160704929493</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_119/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_119/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.328343784355354</v>
+        <v>13.85759313469574</v>
       </c>
       <c r="C2">
-        <v>5.11983886738552</v>
+        <v>8.270098392669199</v>
       </c>
       <c r="D2">
-        <v>5.174628543835425</v>
+        <v>5.369132630153625</v>
       </c>
       <c r="F2">
-        <v>24.12854153961361</v>
+        <v>17.06754725254162</v>
       </c>
       <c r="G2">
-        <v>28.44668901693521</v>
+        <v>20.84867404964174</v>
       </c>
       <c r="H2">
-        <v>14.32345971147685</v>
+        <v>8.738598637888964</v>
       </c>
       <c r="I2">
-        <v>20.44073493203962</v>
+        <v>12.77036197801002</v>
       </c>
       <c r="K2">
-        <v>9.15117348068347</v>
+        <v>12.545848590105</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -456,28 +456,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.973395608549719</v>
+        <v>12.98187511568165</v>
       </c>
       <c r="C3">
-        <v>4.862255450572296</v>
+        <v>7.776987652541965</v>
       </c>
       <c r="D3">
-        <v>5.109305836660659</v>
+        <v>5.196989569462446</v>
       </c>
       <c r="F3">
-        <v>24.2332812560475</v>
+        <v>17.01107752302171</v>
       </c>
       <c r="G3">
-        <v>28.62934061186657</v>
+        <v>20.93138363694626</v>
       </c>
       <c r="H3">
-        <v>14.39305911169561</v>
+        <v>8.882997198078227</v>
       </c>
       <c r="I3">
-        <v>20.57170718249737</v>
+        <v>13.09193362213559</v>
       </c>
       <c r="K3">
-        <v>8.903834857517133</v>
+        <v>11.82262330610291</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.749106100296851</v>
+        <v>12.41367361982637</v>
       </c>
       <c r="C4">
-        <v>4.695928554915776</v>
+        <v>7.458331044612337</v>
       </c>
       <c r="D4">
-        <v>5.068402551887662</v>
+        <v>5.088112226898966</v>
       </c>
       <c r="F4">
-        <v>24.30549255657003</v>
+        <v>17.00006565166142</v>
       </c>
       <c r="G4">
-        <v>28.7533022866289</v>
+        <v>21.02236098287628</v>
       </c>
       <c r="H4">
-        <v>14.43859279322465</v>
+        <v>8.978450035125148</v>
       </c>
       <c r="I4">
-        <v>20.65690240593316</v>
+        <v>13.30046736571182</v>
       </c>
       <c r="K4">
-        <v>8.749533716590612</v>
+        <v>11.35551640542492</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.656245283022423</v>
+        <v>12.17445433886493</v>
       </c>
       <c r="C5">
-        <v>4.626136008100352</v>
+        <v>7.324503196608648</v>
       </c>
       <c r="D5">
-        <v>5.051544776413753</v>
+        <v>5.04298509678151</v>
       </c>
       <c r="F5">
-        <v>24.33689655656531</v>
+        <v>17.00127979722722</v>
       </c>
       <c r="G5">
-        <v>28.8067674019039</v>
+        <v>21.06894546863946</v>
       </c>
       <c r="H5">
-        <v>14.45785202945058</v>
+        <v>9.018988544399651</v>
       </c>
       <c r="I5">
-        <v>20.69282180025974</v>
+        <v>13.38812976805585</v>
       </c>
       <c r="K5">
-        <v>8.686134418262089</v>
+        <v>11.1594232326637</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.640741828275512</v>
+        <v>12.13426893420532</v>
       </c>
       <c r="C6">
-        <v>4.614426797007385</v>
+        <v>7.302042094663507</v>
       </c>
       <c r="D6">
-        <v>5.048734430933693</v>
+        <v>5.035447232096189</v>
       </c>
       <c r="F6">
-        <v>24.34223031085235</v>
+        <v>17.00181828395554</v>
       </c>
       <c r="G6">
-        <v>28.81582279051327</v>
+        <v>21.07723768381356</v>
       </c>
       <c r="H6">
-        <v>14.46109252390221</v>
+        <v>9.025817182439203</v>
       </c>
       <c r="I6">
-        <v>20.6988587737474</v>
+        <v>13.40284530112009</v>
       </c>
       <c r="K6">
-        <v>8.675578372782681</v>
+        <v>11.12651708878321</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -596,28 +596,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.747859472317725</v>
+        <v>12.41047848480731</v>
       </c>
       <c r="C7">
-        <v>4.694995398211681</v>
+        <v>7.456542244154324</v>
       </c>
       <c r="D7">
-        <v>5.068175954666987</v>
+        <v>5.087506641218633</v>
       </c>
       <c r="F7">
-        <v>24.30590808850319</v>
+        <v>17.0000592771579</v>
       </c>
       <c r="G7">
-        <v>28.75401142008677</v>
+        <v>21.02295152130289</v>
       </c>
       <c r="H7">
-        <v>14.43884968002047</v>
+        <v>8.978990192651152</v>
       </c>
       <c r="I7">
-        <v>20.65738196164335</v>
+        <v>13.3016388756503</v>
       </c>
       <c r="K7">
-        <v>8.74868067309286</v>
+        <v>11.35289499780964</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -631,28 +631,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.207352480872732</v>
+        <v>13.56197319827405</v>
       </c>
       <c r="C8">
-        <v>5.032742108883034</v>
+        <v>8.103380303163767</v>
       </c>
       <c r="D8">
-        <v>5.152276490195614</v>
+        <v>5.310461198257983</v>
       </c>
       <c r="F8">
-        <v>24.16301046117747</v>
+        <v>17.04302049106581</v>
       </c>
       <c r="G8">
-        <v>28.50720313903543</v>
+        <v>20.86849382337216</v>
       </c>
       <c r="H8">
-        <v>14.34687655245598</v>
+        <v>8.786935370362571</v>
       </c>
       <c r="I8">
-        <v>20.48490268500834</v>
+        <v>12.87887110776588</v>
       </c>
       <c r="K8">
-        <v>9.066449723838261</v>
+        <v>12.30128842590608</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -666,28 +666,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.05279978417941</v>
+        <v>15.57858763810579</v>
       </c>
       <c r="C9">
-        <v>5.628797866551795</v>
+        <v>9.245371267387354</v>
       </c>
       <c r="D9">
-        <v>5.310441866279359</v>
+        <v>5.720852917926362</v>
       </c>
       <c r="F9">
-        <v>23.94588173629342</v>
+        <v>17.32532211907775</v>
       </c>
       <c r="G9">
-        <v>28.11785732994641</v>
+        <v>20.91044510671705</v>
       </c>
       <c r="H9">
-        <v>14.18873070768012</v>
+        <v>8.46755799622588</v>
       </c>
       <c r="I9">
-        <v>20.18456932544136</v>
+        <v>12.14333291808385</v>
       </c>
       <c r="K9">
-        <v>9.666530447971288</v>
+        <v>13.97686496543562</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.63399157203278</v>
+        <v>16.91443403523104</v>
       </c>
       <c r="C10">
-        <v>6.024828065842503</v>
+        <v>10.00737059097485</v>
       </c>
       <c r="D10">
-        <v>5.421948401747398</v>
+        <v>6.004200590306487</v>
       </c>
       <c r="F10">
-        <v>23.82535048872824</v>
+        <v>17.66624370870531</v>
       </c>
       <c r="G10">
-        <v>27.89073457329084</v>
+        <v>21.18489470010499</v>
       </c>
       <c r="H10">
-        <v>14.08608476038009</v>
+        <v>8.273000337640649</v>
       </c>
       <c r="I10">
-        <v>19.98700301046187</v>
+        <v>11.66906293559281</v>
       </c>
       <c r="K10">
-        <v>10.08874630235118</v>
+        <v>15.09478174674959</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.88868502354561</v>
+        <v>17.49094130145113</v>
       </c>
       <c r="C11">
-        <v>6.195680978612238</v>
+        <v>10.33745934274657</v>
       </c>
       <c r="D11">
-        <v>5.471539063337493</v>
+        <v>6.128855341328173</v>
       </c>
       <c r="F11">
-        <v>23.77908969825908</v>
+        <v>17.85264165374749</v>
       </c>
       <c r="G11">
-        <v>27.8004633485101</v>
+        <v>21.36897204870255</v>
       </c>
       <c r="H11">
-        <v>14.04233053094717</v>
+        <v>8.194509039352166</v>
       </c>
       <c r="I11">
-        <v>19.90213703464215</v>
+        <v>11.47016932166403</v>
       </c>
       <c r="K11">
-        <v>10.27591875887178</v>
+        <v>15.57884644121474</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -771,28 +771,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.98366586369991</v>
+        <v>17.70480896993342</v>
       </c>
       <c r="C12">
-        <v>6.25902770233739</v>
+        <v>10.46009555361159</v>
       </c>
       <c r="D12">
-        <v>5.490145312654406</v>
+        <v>6.175428527096683</v>
       </c>
       <c r="F12">
-        <v>23.762812136384</v>
+        <v>17.92788746122325</v>
       </c>
       <c r="G12">
-        <v>27.76817682345034</v>
+        <v>21.44764007196674</v>
       </c>
       <c r="H12">
-        <v>14.02618495842891</v>
+        <v>8.166349929246081</v>
       </c>
       <c r="I12">
-        <v>19.87072089461796</v>
+        <v>11.39752903238247</v>
       </c>
       <c r="K12">
-        <v>10.346029278056</v>
+        <v>15.758644443728</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.96327628730096</v>
+        <v>17.65894566271133</v>
       </c>
       <c r="C13">
-        <v>6.24544514893531</v>
+        <v>10.43378832100118</v>
       </c>
       <c r="D13">
-        <v>5.486145951092141</v>
+        <v>6.165426512366006</v>
       </c>
       <c r="F13">
-        <v>23.76626250999215</v>
+        <v>17.91147233933655</v>
       </c>
       <c r="G13">
-        <v>27.77504559695381</v>
+        <v>21.43029249738831</v>
       </c>
       <c r="H13">
-        <v>14.02964336669727</v>
+        <v>8.172342845339186</v>
       </c>
       <c r="I13">
-        <v>19.87745485522089</v>
+        <v>11.41304995323389</v>
       </c>
       <c r="K13">
-        <v>10.33096481443218</v>
+        <v>15.72007739346984</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -841,28 +841,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.89652891430259</v>
+        <v>17.50862512412772</v>
       </c>
       <c r="C14">
-        <v>6.200919706699294</v>
+        <v>10.34759589684576</v>
       </c>
       <c r="D14">
-        <v>5.473073324382853</v>
+        <v>6.13269969630775</v>
       </c>
       <c r="F14">
-        <v>23.7777256294434</v>
+        <v>17.85873792828255</v>
       </c>
       <c r="G14">
-        <v>27.79776897537491</v>
+        <v>21.37526217539542</v>
       </c>
       <c r="H14">
-        <v>14.04099374063607</v>
+        <v>8.192160278746636</v>
       </c>
       <c r="I14">
-        <v>19.89953796075639</v>
+        <v>11.46413793930612</v>
       </c>
       <c r="K14">
-        <v>10.28170252144081</v>
+        <v>15.59370870693911</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -876,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.85545132688382</v>
+        <v>17.41597209600843</v>
       </c>
       <c r="C15">
-        <v>6.173470219653917</v>
+        <v>10.29449367878368</v>
       </c>
       <c r="D15">
-        <v>5.465043200716157</v>
+        <v>6.112570857822951</v>
       </c>
       <c r="F15">
-        <v>23.78490888918247</v>
+        <v>17.82704790627322</v>
       </c>
       <c r="G15">
-        <v>27.81193538813881</v>
+        <v>21.34273377415492</v>
       </c>
       <c r="H15">
-        <v>14.04800130003901</v>
+        <v>8.204506566706026</v>
       </c>
       <c r="I15">
-        <v>19.91315838560757</v>
+        <v>11.4957874996772</v>
       </c>
       <c r="K15">
-        <v>10.2514261888433</v>
+        <v>15.51584808634102</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -911,28 +911,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.61714530371809</v>
+        <v>16.87613389288066</v>
       </c>
       <c r="C16">
-        <v>6.013473969551909</v>
+        <v>9.985466974091063</v>
       </c>
       <c r="D16">
-        <v>5.418683886241793</v>
+        <v>5.995966888665813</v>
       </c>
       <c r="F16">
-        <v>23.82854688543188</v>
+        <v>17.65470626402831</v>
       </c>
       <c r="G16">
-        <v>27.89689837182621</v>
+        <v>21.17409606779071</v>
       </c>
       <c r="H16">
-        <v>14.08900339833818</v>
+        <v>8.278341751734169</v>
       </c>
       <c r="I16">
-        <v>19.9926500253383</v>
+        <v>11.68242101381021</v>
       </c>
       <c r="K16">
-        <v>10.07641005360234</v>
+        <v>15.0626553352022</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -946,28 +946,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.46841500365434</v>
+        <v>16.53700259284089</v>
       </c>
       <c r="C17">
-        <v>5.91292781914113</v>
+        <v>9.791662093826901</v>
       </c>
       <c r="D17">
-        <v>5.389946526905828</v>
+        <v>5.92333175252498</v>
       </c>
       <c r="F17">
-        <v>23.85751816770782</v>
+        <v>17.5571194072164</v>
       </c>
       <c r="G17">
-        <v>27.95237738882149</v>
+        <v>21.08614785392227</v>
       </c>
       <c r="H17">
-        <v>14.11491014924452</v>
+        <v>8.326286457801213</v>
       </c>
       <c r="I17">
-        <v>20.04269863770182</v>
+        <v>11.80139967629965</v>
       </c>
       <c r="K17">
-        <v>9.967742260305659</v>
+        <v>14.77837314267916</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -981,28 +981,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.381960500854</v>
+        <v>16.33900609725091</v>
       </c>
       <c r="C18">
-        <v>5.854221265571462</v>
+        <v>9.678631580495621</v>
       </c>
       <c r="D18">
-        <v>5.373311347845757</v>
+        <v>5.881155731319653</v>
       </c>
       <c r="F18">
-        <v>23.87498782903343</v>
+        <v>17.50392908827533</v>
       </c>
       <c r="G18">
-        <v>27.98551437546476</v>
+        <v>21.04111427659864</v>
       </c>
       <c r="H18">
-        <v>14.13008771786996</v>
+        <v>8.354797425036399</v>
       </c>
       <c r="I18">
-        <v>20.07195660197133</v>
+        <v>11.87140217843054</v>
       </c>
       <c r="K18">
-        <v>9.904782038746854</v>
+        <v>14.61255590191199</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1016,28 +1016,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.35253477144541</v>
+        <v>16.27146229200556</v>
       </c>
       <c r="C19">
-        <v>5.834194415366404</v>
+        <v>9.640093141082916</v>
       </c>
       <c r="D19">
-        <v>5.36766101780481</v>
+        <v>5.866807957740191</v>
       </c>
       <c r="F19">
-        <v>23.88104095692297</v>
+        <v>17.48641936123035</v>
       </c>
       <c r="G19">
-        <v>27.99694406875647</v>
+        <v>21.02680567892407</v>
       </c>
       <c r="H19">
-        <v>14.13527409074084</v>
+        <v>8.36460765882817</v>
       </c>
       <c r="I19">
-        <v>20.08194377923762</v>
+        <v>11.89536621969803</v>
       </c>
       <c r="K19">
-        <v>9.883388270355598</v>
+        <v>14.55601675366679</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.48434220589832</v>
+        <v>16.57340740761831</v>
       </c>
       <c r="C20">
-        <v>5.923721804704862</v>
+        <v>9.812454194815382</v>
       </c>
       <c r="D20">
-        <v>5.393016730640592</v>
+        <v>5.931105263003444</v>
       </c>
       <c r="F20">
-        <v>23.85435063172875</v>
+        <v>17.56720229624356</v>
       </c>
       <c r="G20">
-        <v>27.94634441744571</v>
+        <v>21.0949320726666</v>
       </c>
       <c r="H20">
-        <v>14.11212369180659</v>
+        <v>8.321085091585836</v>
       </c>
       <c r="I20">
-        <v>20.03732209274175</v>
+        <v>11.7885700835966</v>
       </c>
       <c r="K20">
-        <v>9.979357949400249</v>
+        <v>14.80887401918128</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.91617454978844</v>
+        <v>17.55289815294983</v>
       </c>
       <c r="C21">
-        <v>6.214034683527609</v>
+        <v>10.37297661256351</v>
       </c>
       <c r="D21">
-        <v>5.476917831902783</v>
+        <v>6.14232962649013</v>
       </c>
       <c r="F21">
-        <v>23.77432490732282</v>
+        <v>17.8740996504011</v>
       </c>
       <c r="G21">
-        <v>27.79104291389719</v>
+        <v>21.39117945172107</v>
       </c>
       <c r="H21">
-        <v>14.03764837127458</v>
+        <v>8.186295929594765</v>
       </c>
       <c r="I21">
-        <v>19.8930320505256</v>
+        <v>11.44905731974676</v>
       </c>
       <c r="K21">
-        <v>10.29619336215919</v>
+        <v>15.63092127983233</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1121,28 +1121,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.18982999813543</v>
+        <v>18.1671759419509</v>
       </c>
       <c r="C22">
-        <v>6.395888720783273</v>
+        <v>10.72555936365331</v>
       </c>
       <c r="D22">
-        <v>5.530741507348801</v>
+        <v>6.276692516157442</v>
       </c>
       <c r="F22">
-        <v>23.72925683478011</v>
+        <v>18.10190086966052</v>
       </c>
       <c r="G22">
-        <v>27.70061222178771</v>
+        <v>21.6371929120454</v>
       </c>
       <c r="H22">
-        <v>13.99144143838389</v>
+        <v>8.107384792865375</v>
       </c>
       <c r="I22">
-        <v>19.80293169240289</v>
+        <v>11.24291144738397</v>
       </c>
       <c r="K22">
-        <v>10.49876389067634</v>
+        <v>16.14774806398411</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1156,28 +1156,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.04458060368149</v>
+        <v>17.84167755450729</v>
       </c>
       <c r="C23">
-        <v>6.299554772671827</v>
+        <v>10.5386301601914</v>
       </c>
       <c r="D23">
-        <v>5.502110322206915</v>
+        <v>6.205323663841324</v>
       </c>
       <c r="F23">
-        <v>23.75264611503846</v>
+        <v>17.97778106315496</v>
       </c>
       <c r="G23">
-        <v>27.74785730396277</v>
+        <v>21.50096561917919</v>
       </c>
       <c r="H23">
-        <v>14.01587706053659</v>
+        <v>8.14861700080861</v>
       </c>
       <c r="I23">
-        <v>19.85063527454496</v>
+        <v>11.35140110311228</v>
       </c>
       <c r="K23">
-        <v>10.39107942381004</v>
+        <v>15.87377063521316</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1191,28 +1191,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.47714446335575</v>
+        <v>16.55695821725213</v>
       </c>
       <c r="C24">
-        <v>5.918844649932391</v>
+        <v>9.803059100547436</v>
       </c>
       <c r="D24">
-        <v>5.391629044913189</v>
+        <v>5.927592156505416</v>
       </c>
       <c r="F24">
-        <v>23.85578014078175</v>
+        <v>17.56263475896101</v>
       </c>
       <c r="G24">
-        <v>27.9490680586218</v>
+        <v>21.09094354021638</v>
       </c>
       <c r="H24">
-        <v>14.11338256635698</v>
+        <v>8.323433689041087</v>
       </c>
       <c r="I24">
-        <v>20.0397513200183</v>
+        <v>11.79436537718829</v>
       </c>
       <c r="K24">
-        <v>9.974108004184238</v>
+        <v>14.7950919858444</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.830713058971362</v>
+        <v>15.05876821250392</v>
       </c>
       <c r="C25">
-        <v>5.474818262937545</v>
+        <v>8.949991525791564</v>
       </c>
       <c r="D25">
-        <v>5.268438144341965</v>
+        <v>5.612905778789252</v>
       </c>
       <c r="F25">
-        <v>23.99780994608748</v>
+        <v>17.22635658420739</v>
       </c>
       <c r="G25">
-        <v>28.21292491252607</v>
+        <v>20.85860561307027</v>
       </c>
       <c r="H25">
-        <v>14.22913520100286</v>
+        <v>8.547327677447642</v>
       </c>
       <c r="I25">
-        <v>20.26176212465547</v>
+        <v>12.33145181803631</v>
       </c>
       <c r="K25">
-        <v>9.507160704929493</v>
+        <v>13.54343067670292</v>
       </c>
       <c r="N25">
         <v>0</v>
